--- a/data/5270.xlsx
+++ b/data/5270.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I876"/>
+  <dimension ref="A1:I877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31310,6 +31310,43 @@
         </is>
       </c>
     </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>RSENA</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G877" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
